--- a/Data/discharge/LakeO_DBKEYS_V3.xlsx
+++ b/Data/discharge/LakeO_DBKEYS_V3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julian_LaCie\Work\LakeOkeechobee\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julian_LaCie\_GitHub\LakeO_Sediment\Data\discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3039D733-9C17-4DEC-B224-533003450A56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240B44D-30E0-450E-A0A3-F93867566BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="1875" windowWidth="14400" windowHeight="10755" xr2:uid="{B5E79C97-39DF-4937-836D-17D5A47D2D5F}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="dbkeys_V2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dbkeys_V2!$A$1:$J$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dbkeys_V2!$A$1:$J$65</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="5" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="132">
   <si>
     <t>STATION</t>
   </si>
@@ -829,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3450AD-B25A-4CBD-918E-ED47038A14B1}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2107,7 @@
         <v>15021</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>35</v>
@@ -2123,17 +2123,17 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>68</v>
+      <c r="A42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>15644</v>
+        <v>91508</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -2142,27 +2142,27 @@
         <v>35</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>38</v>
+      <c r="B43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D43" s="3">
-        <v>15018</v>
+        <v>15644</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -2171,33 +2171,33 @@
         <v>35</v>
       </c>
       <c r="G43" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3">
+        <v>91513</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G44" s="3">
         <v>-1</v>
@@ -2206,27 +2206,27 @@
         <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="2">
-        <v>15626</v>
+        <v>38</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="3">
+        <v>15018</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G45" s="3">
         <v>-1</v>
@@ -2235,27 +2235,27 @@
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="3">
-        <v>91509</v>
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G46" s="3">
         <v>-1</v>
@@ -2264,50 +2264,50 @@
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>72</v>
+      <c r="A47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="3">
-        <v>91511</v>
+        <v>45</v>
+      </c>
+      <c r="D47" s="2">
+        <v>15626</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>39</v>
+      <c r="A48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D48" s="3">
-        <v>91514</v>
+        <v>91509</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -2322,21 +2322,21 @@
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="D49" s="3">
-        <v>15630</v>
+        <v>91511</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
@@ -2348,59 +2348,59 @@
         <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>111</v>
+      <c r="A50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D50" s="3">
-        <v>91608</v>
+        <v>91514</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="D51" s="3">
-        <v>91656</v>
+        <v>15630</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -2409,30 +2409,27 @@
         <v>0</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
+      </c>
+      <c r="D52" s="3">
+        <v>91608</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -2441,24 +2438,21 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D53" s="3">
+        <v>91656</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>8</v>
@@ -2480,20 +2474,20 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>46</v>
+      <c r="A54" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="3">
-        <v>15633</v>
+        <v>54</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>9</v>
@@ -2505,27 +2499,27 @@
         <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>46</v>
+      <c r="A55" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="3">
-        <v>91668</v>
+        <v>57</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>9</v>
@@ -2537,24 +2531,24 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="3">
-        <v>15634</v>
+        <v>15633</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>8</v>
@@ -2569,24 +2563,24 @@
         <v>0</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" s="3">
-        <v>91675</v>
+        <v>91668</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
@@ -2601,146 +2595,146 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="3">
+        <v>15634</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="3">
+        <v>91675</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G60" s="3">
         <v>-1</v>
       </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D61" s="3">
         <v>15635</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G61" s="3">
         <v>-1</v>
       </c>
-      <c r="H59" s="3">
-        <v>1</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D62" s="3">
         <v>15636</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="3">
-        <v>91687</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="3">
-        <v>91686</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -2762,38 +2756,103 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="3">
+        <v>91687</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="3">
+        <v>91686</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D65" s="3">
         <v>90871</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3" t="s">
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J65" xr:uid="{6D66EB5A-52EF-4639-BDB3-87EB4C3C38E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
